--- a/日常工作/9月19日统计汇报.xlsx
+++ b/日常工作/9月19日统计汇报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\naling\nl_files\日常工作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFEF1FC-7C20-4F84-B1D5-2C75EFBF83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B89146-1E2E-4069-A885-20CB5AD137C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
   <si>
     <t>日期</t>
   </si>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +141,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -206,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,9 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,6 +289,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,11 +577,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2954,7 +2977,7 @@
       <c r="V37" s="14">
         <v>0</v>
       </c>
-      <c r="W37" s="21"/>
+      <c r="W37" s="20"/>
     </row>
     <row r="38" spans="1:23" s="1" customFormat="1" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
@@ -3327,7 +3350,9 @@
       <c r="J43" s="7">
         <v>-41600</v>
       </c>
-      <c r="K43" s="18"/>
+      <c r="K43" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="L43" s="7">
         <v>73737</v>
       </c>
@@ -3393,7 +3418,9 @@
       <c r="J44" s="7">
         <v>-26200</v>
       </c>
-      <c r="K44" s="18"/>
+      <c r="K44" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="L44" s="7">
         <v>27203</v>
       </c>
@@ -3459,7 +3486,9 @@
       <c r="J45" s="7">
         <v>-22100</v>
       </c>
-      <c r="K45" s="18"/>
+      <c r="K45" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="L45" s="7">
         <v>85339</v>
       </c>
@@ -3525,7 +3554,9 @@
       <c r="J46" s="7">
         <v>-3200</v>
       </c>
-      <c r="K46" s="18"/>
+      <c r="K46" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="L46" s="7">
         <v>19827</v>
       </c>
@@ -3591,7 +3622,9 @@
       <c r="J47" s="7">
         <v>-130700</v>
       </c>
-      <c r="K47" s="18"/>
+      <c r="K47" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="L47" s="7">
         <v>90155</v>
       </c>
@@ -3657,7 +3690,9 @@
       <c r="J48" s="7">
         <v>-56400</v>
       </c>
-      <c r="K48" s="18"/>
+      <c r="K48" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="L48" s="7">
         <v>59045</v>
       </c>
@@ -3723,7 +3758,9 @@
       <c r="J49" s="14">
         <v>-10200</v>
       </c>
-      <c r="K49" s="19"/>
+      <c r="K49" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="L49" s="14">
         <v>16709</v>
       </c>
@@ -3789,7 +3826,9 @@
       <c r="J50" s="13">
         <v>-6400</v>
       </c>
-      <c r="K50" s="19"/>
+      <c r="K50" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="L50" s="13">
         <v>15994</v>
       </c>
@@ -3855,7 +3894,9 @@
       <c r="J51" s="14">
         <v>-7100</v>
       </c>
-      <c r="K51" s="19"/>
+      <c r="K51" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="L51" s="14">
         <v>11430</v>
       </c>
@@ -3960,7 +4001,7 @@
       <c r="A53" s="12">
         <v>44821</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="21">
         <v>6646</v>
       </c>
       <c r="C53" s="11">
@@ -4026,7 +4067,7 @@
       <c r="A54" s="12">
         <v>44822</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="21">
         <v>9900</v>
       </c>
       <c r="C54" s="11">
@@ -4088,88 +4129,616 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+    <row r="55" spans="1:22" s="2" customFormat="1" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>44823</v>
+      </c>
+      <c r="B55" s="23">
+        <v>13200</v>
+      </c>
+      <c r="C55" s="23">
+        <v>0</v>
+      </c>
+      <c r="D55" s="23">
+        <v>0</v>
+      </c>
+      <c r="E55" s="23">
+        <v>0</v>
+      </c>
+      <c r="F55" s="23">
+        <v>0</v>
+      </c>
+      <c r="G55" s="23">
+        <v>-5500</v>
+      </c>
+      <c r="H55" s="23">
+        <v>19</v>
+      </c>
+      <c r="I55" s="23">
+        <v>12379</v>
+      </c>
+      <c r="J55" s="23">
+        <v>-8300</v>
+      </c>
+      <c r="K55" s="24"/>
+      <c r="L55" s="23">
+        <v>11775</v>
+      </c>
+      <c r="M55" s="23">
+        <v>5</v>
+      </c>
+      <c r="N55" s="23">
+        <v>15</v>
+      </c>
+      <c r="O55" s="23">
+        <v>13</v>
+      </c>
+      <c r="P55" s="23">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="23">
+        <v>33000</v>
+      </c>
+      <c r="R55" s="23">
+        <v>-7749</v>
+      </c>
+      <c r="S55" s="23">
+        <v>25</v>
+      </c>
+      <c r="T55" s="23">
+        <v>57</v>
+      </c>
+      <c r="U55" s="23">
+        <v>0</v>
+      </c>
+      <c r="V55" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" s="2" customFormat="1" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>44824</v>
+      </c>
+      <c r="B56" s="23">
+        <v>7700</v>
+      </c>
+      <c r="C56" s="23">
+        <v>0</v>
+      </c>
+      <c r="D56" s="23">
+        <v>0</v>
+      </c>
+      <c r="E56" s="23">
+        <v>0</v>
+      </c>
+      <c r="F56" s="23">
+        <v>0</v>
+      </c>
+      <c r="G56" s="23">
+        <v>-1100</v>
+      </c>
+      <c r="H56" s="23">
+        <v>9</v>
+      </c>
+      <c r="I56" s="23">
+        <v>9364</v>
+      </c>
+      <c r="J56" s="23">
+        <v>-8300</v>
+      </c>
+      <c r="K56" s="24"/>
+      <c r="L56" s="23">
+        <v>9770</v>
+      </c>
+      <c r="M56" s="23">
+        <v>3</v>
+      </c>
+      <c r="N56" s="23">
+        <v>11</v>
+      </c>
+      <c r="O56" s="23">
+        <v>9</v>
+      </c>
+      <c r="P56" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="23">
+        <v>19800</v>
+      </c>
+      <c r="R56" s="23">
+        <v>-5729</v>
+      </c>
+      <c r="S56" s="23">
+        <v>15</v>
+      </c>
+      <c r="T56" s="23">
+        <v>59</v>
+      </c>
+      <c r="U56" s="23">
+        <v>0</v>
+      </c>
+      <c r="V56" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" s="2" customFormat="1" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>44825</v>
+      </c>
+      <c r="B57" s="23">
+        <v>58300</v>
+      </c>
+      <c r="C57" s="23">
+        <v>0</v>
+      </c>
+      <c r="D57" s="23">
+        <v>0</v>
+      </c>
+      <c r="E57" s="23">
+        <v>0</v>
+      </c>
+      <c r="F57" s="23">
+        <v>0</v>
+      </c>
+      <c r="G57" s="23">
+        <v>-18688</v>
+      </c>
+      <c r="H57" s="23">
+        <v>13</v>
+      </c>
+      <c r="I57" s="23">
+        <v>27906</v>
+      </c>
+      <c r="J57" s="23">
+        <v>-11600</v>
+      </c>
+      <c r="K57" s="24"/>
+      <c r="L57" s="23">
+        <v>29108</v>
+      </c>
+      <c r="M57" s="23">
+        <v>11</v>
+      </c>
+      <c r="N57" s="23">
+        <v>17</v>
+      </c>
+      <c r="O57" s="23">
+        <v>30</v>
+      </c>
+      <c r="P57" s="23">
+        <v>22</v>
+      </c>
+      <c r="Q57" s="23">
+        <v>66000</v>
+      </c>
+      <c r="R57" s="23">
+        <v>-9827</v>
+      </c>
+      <c r="S57" s="23">
+        <v>52</v>
+      </c>
+      <c r="T57" s="23">
+        <v>80</v>
+      </c>
+      <c r="U57" s="23">
+        <v>0</v>
+      </c>
+      <c r="V57" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" s="2" customFormat="1" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <v>44826</v>
+      </c>
+      <c r="B58" s="23">
+        <v>15518</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0</v>
+      </c>
+      <c r="D58" s="23">
+        <v>46</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0</v>
+      </c>
+      <c r="F58" s="23">
+        <v>72</v>
+      </c>
+      <c r="G58" s="23">
+        <v>-7573</v>
+      </c>
+      <c r="H58" s="23">
+        <v>21</v>
+      </c>
+      <c r="I58" s="23">
+        <v>13520</v>
+      </c>
+      <c r="J58" s="23">
+        <v>-6700</v>
+      </c>
+      <c r="K58" s="24"/>
+      <c r="L58" s="23">
+        <v>14675</v>
+      </c>
+      <c r="M58" s="23">
+        <v>7</v>
+      </c>
+      <c r="N58" s="23">
+        <v>16</v>
+      </c>
+      <c r="O58" s="23">
+        <v>18</v>
+      </c>
+      <c r="P58" s="23">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="23">
+        <v>39600</v>
+      </c>
+      <c r="R58" s="23">
+        <v>-7812</v>
+      </c>
+      <c r="S58" s="23">
+        <v>34</v>
+      </c>
+      <c r="T58" s="23">
+        <v>76</v>
+      </c>
+      <c r="U58" s="23">
+        <v>390</v>
+      </c>
+      <c r="V58" s="23">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" s="2" customFormat="1" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>44827</v>
+      </c>
+      <c r="B59" s="23">
+        <v>22000</v>
+      </c>
+      <c r="C59" s="23">
+        <v>0</v>
+      </c>
+      <c r="D59" s="23">
+        <v>0</v>
+      </c>
+      <c r="E59" s="23">
+        <v>0</v>
+      </c>
+      <c r="F59" s="23">
+        <v>0</v>
+      </c>
+      <c r="G59" s="23">
+        <v>-8800</v>
+      </c>
+      <c r="H59" s="23">
+        <v>32</v>
+      </c>
+      <c r="I59" s="23">
+        <v>34588</v>
+      </c>
+      <c r="J59" s="23">
+        <v>-12700</v>
+      </c>
+      <c r="K59" s="24"/>
+      <c r="L59" s="23">
+        <v>37267</v>
+      </c>
+      <c r="M59" s="23">
+        <v>12</v>
+      </c>
+      <c r="N59" s="23">
         <v>23</v>
       </c>
-      <c r="B55" s="15">
-        <f t="shared" ref="B55:J55" si="0">SUM(B2:B52)</f>
+      <c r="O59" s="23">
+        <v>35</v>
+      </c>
+      <c r="P59" s="23">
+        <v>26</v>
+      </c>
+      <c r="Q59" s="23">
+        <v>79200</v>
+      </c>
+      <c r="R59" s="23">
+        <v>-7904</v>
+      </c>
+      <c r="S59" s="23">
+        <v>61</v>
+      </c>
+      <c r="T59" s="23">
+        <v>59</v>
+      </c>
+      <c r="U59" s="23">
+        <v>0</v>
+      </c>
+      <c r="V59" s="23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" s="2" customFormat="1" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>44828</v>
+      </c>
+      <c r="B60" s="23">
+        <v>40700</v>
+      </c>
+      <c r="C60" s="23">
+        <v>0</v>
+      </c>
+      <c r="D60" s="23">
+        <v>0</v>
+      </c>
+      <c r="E60" s="23">
+        <v>0</v>
+      </c>
+      <c r="F60" s="23">
+        <v>0</v>
+      </c>
+      <c r="G60" s="23">
+        <v>-2200</v>
+      </c>
+      <c r="H60" s="23">
+        <v>25</v>
+      </c>
+      <c r="I60" s="23">
+        <v>10648</v>
+      </c>
+      <c r="J60" s="23">
+        <v>-1800</v>
+      </c>
+      <c r="K60" s="24"/>
+      <c r="L60" s="23">
+        <v>10960</v>
+      </c>
+      <c r="M60" s="23">
+        <v>4</v>
+      </c>
+      <c r="N60" s="23">
+        <v>12</v>
+      </c>
+      <c r="O60" s="23">
+        <v>9</v>
+      </c>
+      <c r="P60" s="23">
+        <v>11</v>
+      </c>
+      <c r="Q60" s="23">
+        <v>26400</v>
+      </c>
+      <c r="R60" s="23">
+        <v>-10132</v>
+      </c>
+      <c r="S60" s="23">
+        <v>20</v>
+      </c>
+      <c r="T60" s="23">
+        <v>84</v>
+      </c>
+      <c r="U60" s="23">
+        <v>0</v>
+      </c>
+      <c r="V60" s="23">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" s="2" customFormat="1" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <v>44829</v>
+      </c>
+      <c r="B61" s="23">
+        <v>9900</v>
+      </c>
+      <c r="C61" s="23">
+        <v>0</v>
+      </c>
+      <c r="D61" s="23">
+        <v>0</v>
+      </c>
+      <c r="E61" s="23">
+        <v>0</v>
+      </c>
+      <c r="F61" s="23">
+        <v>0</v>
+      </c>
+      <c r="G61" s="23">
+        <v>-577</v>
+      </c>
+      <c r="H61" s="23">
+        <v>15</v>
+      </c>
+      <c r="I61" s="23">
+        <v>30282</v>
+      </c>
+      <c r="J61" s="23">
+        <v>-36100</v>
+      </c>
+      <c r="K61" s="24"/>
+      <c r="L61" s="23">
+        <v>31944</v>
+      </c>
+      <c r="M61" s="23">
+        <v>6</v>
+      </c>
+      <c r="N61" s="23">
+        <v>15</v>
+      </c>
+      <c r="O61" s="23">
+        <v>18</v>
+      </c>
+      <c r="P61" s="23">
+        <v>11</v>
+      </c>
+      <c r="Q61" s="23">
+        <v>33000</v>
+      </c>
+      <c r="R61" s="23">
+        <v>-8126</v>
+      </c>
+      <c r="S61" s="23">
+        <v>29</v>
+      </c>
+      <c r="T61" s="23">
+        <v>77</v>
+      </c>
+      <c r="U61" s="23">
+        <v>0</v>
+      </c>
+      <c r="V61" s="23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" s="2" customFormat="1" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
+        <v>44830</v>
+      </c>
+      <c r="B62" s="23">
+        <v>27500</v>
+      </c>
+      <c r="C62" s="23">
+        <v>0</v>
+      </c>
+      <c r="D62" s="23">
+        <v>0</v>
+      </c>
+      <c r="E62" s="23">
+        <v>0</v>
+      </c>
+      <c r="F62" s="23">
+        <v>0</v>
+      </c>
+      <c r="G62" s="23">
+        <v>-12189</v>
+      </c>
+      <c r="H62" s="23">
+        <v>23</v>
+      </c>
+      <c r="I62" s="23">
+        <v>30280</v>
+      </c>
+      <c r="J62" s="23">
+        <v>-24400</v>
+      </c>
+      <c r="K62" s="24"/>
+      <c r="L62" s="23">
+        <v>31904</v>
+      </c>
+      <c r="M62" s="23">
+        <v>13</v>
+      </c>
+      <c r="N62" s="23">
+        <v>27</v>
+      </c>
+      <c r="O62" s="23">
+        <v>36</v>
+      </c>
+      <c r="P62" s="23">
+        <v>27</v>
+      </c>
+      <c r="Q62" s="23">
+        <v>85800</v>
+      </c>
+      <c r="R62" s="23">
+        <v>-8274</v>
+      </c>
+      <c r="S62" s="23">
+        <v>63</v>
+      </c>
+      <c r="T62" s="23">
+        <v>65</v>
+      </c>
+      <c r="U62" s="23">
+        <v>0</v>
+      </c>
+      <c r="V62" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="15">
+        <f t="shared" ref="B63:J63" si="0">SUM(B2:B52)</f>
         <v>2394850</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C63" s="15">
         <f t="shared" si="0"/>
         <v>1159</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D63" s="15">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E63" s="15">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F63" s="15">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G63" s="15">
         <f>SUM(G2:G53)</f>
         <v>-540307</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H63" s="15">
         <f t="shared" si="0"/>
         <v>1245</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I63" s="15">
         <f t="shared" si="0"/>
         <v>1600538</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J63" s="15">
         <f t="shared" si="0"/>
         <v>-927631</v>
       </c>
-      <c r="K55" s="20"/>
-      <c r="L55" s="15">
-        <f t="shared" ref="L55:V55" si="1">SUM(L2:L52)</f>
+      <c r="K63" s="19"/>
+      <c r="L63" s="15">
+        <f t="shared" ref="L63:V63" si="1">SUM(L2:L52)</f>
         <v>1616742</v>
       </c>
-      <c r="M55" s="15">
+      <c r="M63" s="15">
         <f t="shared" si="1"/>
         <v>789</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N63" s="15">
         <f t="shared" si="1"/>
         <v>1149</v>
       </c>
-      <c r="O55" s="15">
+      <c r="O63" s="15">
         <f t="shared" si="1"/>
         <v>2264</v>
       </c>
-      <c r="P55" s="15">
+      <c r="P63" s="15">
         <f t="shared" si="1"/>
         <v>2202</v>
       </c>
-      <c r="Q55" s="15">
+      <c r="Q63" s="15">
         <f t="shared" si="1"/>
         <v>5053400</v>
       </c>
-      <c r="R55" s="15">
+      <c r="R63" s="15">
         <f t="shared" si="1"/>
         <v>-565756</v>
       </c>
-      <c r="S55" s="15">
+      <c r="S63" s="15">
         <f t="shared" si="1"/>
         <v>4466</v>
       </c>
-      <c r="T55" s="15">
+      <c r="T63" s="15">
         <f t="shared" si="1"/>
         <v>3824</v>
       </c>
-      <c r="U55" s="15">
+      <c r="U63" s="15">
         <f t="shared" si="1"/>
         <v>2613</v>
       </c>
-      <c r="V55" s="15">
+      <c r="V63" s="15">
         <f t="shared" si="1"/>
         <v>843</v>
       </c>
@@ -4177,6 +4746,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>